--- a/biology/Botanique/Jardin_botanique_de_Sibérie/Jardin_botanique_de_Sibérie.xlsx
+++ b/biology/Botanique/Jardin_botanique_de_Sibérie/Jardin_botanique_de_Sibérie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardin_botanique_de_Sib%C3%A9rie</t>
+          <t>Jardin_botanique_de_Sibérie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin botanique de Sibérie (Сибирский ботанический сад) est un jardin botanique situé à Tomsk en Russie. C'est le premier jardin botanique à avoir été fondé au-delà de l'Oural. Il a été institué en 1885 par le professeur Krylov (1850-1931). Il est dirigé après 1927 par le professeur Reverdatto (1891-1969). Le professeur Popov (1893-1955) y a laissé un herbier riche de ses collections d'Asie centrale et de Sibérie. Son directeur actuel est Mme Tatiana Astafourova. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardin_botanique_de_Sib%C3%A9rie</t>
+          <t>Jardin_botanique_de_Sibérie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin botanique dépend de l'université d'État de Tomsk. Il a été inscrit en 2004 à la liste des territoires protégés d'importance régionale. Il s'étend sur 126,5 hectares: 10 hectares sont consacrés au parc du jardin botanique, avec des serres dont une serre chaude dans le bosquet de l'université et 116,5 hectares consacrés à un dendrorium.
 Plus de six mille espèces de plantes sont cultivées dans les serres et les espaces à l'air libre dont environ deux mille espèces tropicales et subtropicales. La serre centrale mesure 31 mètres de hauteur. C'est l'une des serres les plus élevées du monde.
